--- a/src/test/resources/excelImport/testdataset.xlsx
+++ b/src/test/resources/excelImport/testdataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="137">
   <si>
     <t xml:space="preserve">Study Information</t>
   </si>
@@ -83,25 +83,52 @@
     <t xml:space="preserve">measurement moment</t>
   </si>
   <si>
+    <t xml:space="preserve">count</t>
+  </si>
+  <si>
     <t xml:space="preserve">sample_size</t>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teststudy 1</t>
+    <t xml:space="preserve">Ahrén 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8090/#/users/1/datasets/926cac9e-6871-4500-831c-87c218378942/versions/537c5bab-49e3-403b-97b9-f752c05f96b7/studies/1c9d7949-2d1a-47ec-8fa7-76acaae9f437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twelve- and 52-Week Efficacy of the Dipeptidyl Peptidase IV Inhibitor LAF237 in Metformin-Treated Patients With Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To assess the 12- and 52-week efficacy of the dipeptidyl peptidase IV inhibitor LAF237 (Vildagliptin) versus Placebo in patients with type 2 diabetes continuing Metformin treatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type II diabetes mellitus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adverse event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichotomous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vildagliptin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teststudy 2</t>
   </si>
   <si>
     <t xml:space="preserve">http://localhost:8090/#/users/1/datasets/764fbccd-4e8b-493f-9323-1901e551b356/versions/b1436e76-53ad-4ac0-b7d2-9276b40ded70/studies/70424f5a-1038-45d7-a076-570a7a519b0f</t>
@@ -110,12 +137,6 @@
     <t xml:space="preserve">long test study title 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Randomized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double blind</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recruiting</t>
   </si>
   <si>
@@ -134,120 +155,138 @@
     <t xml:space="preserve">baseline characteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">dichotomous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adverse event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survival</t>
+    <t xml:space="preserve">arm 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arm 2 desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dose type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/washoutActivityUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wash out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/vildagliptinActivityUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vildagliptin + placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/placeboActivityUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/randomisationActivityUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/randomisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act 2 desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act 1 desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is primary?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/randomisationEpochUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT0S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/treatmentPhaseEpochUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treatment phase</t>
   </si>
   <si>
     <t xml:space="preserve">P1W</t>
   </si>
   <si>
-    <t xml:space="preserve">arm 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arm 2 desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dose type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">periodicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/906c7097-8bc8-4b53-949f-e5c237df73e0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act 1 desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/c52831f4-4466-4c86-a8b3-6be91e0c6bba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act 2 desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is primary?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/15d94d89-2caa-4ae4-b2de-82e2951bfa93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epoch 1</t>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/washoutEpochUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/epoch1</t>
   </si>
   <si>
     <t xml:space="preserve">epoch 1 desc</t>
   </si>
   <si>
-    <t xml:space="preserve">PT0S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/30dbf1ab-d458-4398-8795-75c51fecebd4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epoch 2</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/epoch2</t>
   </si>
   <si>
     <t xml:space="preserve">epoch 2 desc</t>
   </si>
   <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
     <t xml:space="preserve">arm</t>
   </si>
   <si>
@@ -260,24 +299,45 @@
     <t xml:space="preserve">offset</t>
   </si>
   <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/c8717007-89a8-4f5c-a81a-3d2fb6c61805</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/baselineMeasurementMomentUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/week52MeasurementMomentUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/week12MeasurementMomentUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P84D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/mm1</t>
   </si>
   <si>
     <t xml:space="preserve">At end of epoch 1</t>
   </si>
   <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/a4acc017-f387-40a8-8c01-dd7fc55d7a9e</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/mm2</t>
   </si>
   <si>
     <t xml:space="preserve">7 day(s) from start of epoch 2</t>
   </si>
   <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
     <t xml:space="preserve">label</t>
   </si>
   <si>
@@ -287,45 +347,51 @@
     <t xml:space="preserve">multiplier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/8dac60f3-fc6e-4155-82fe-2bdcb82da33b</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/placeboConceptUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/placeboDatasetUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/vildaConceptUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/vildaDatasetUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/bursitisConceptUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bursitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/bursitisDatasetUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/milligramConceptUri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milligram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/datasetGramConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/instances/drug</t>
   </si>
   <si>
     <t xml:space="preserve">drug 1</t>
   </si>
   <si>
-    <t xml:space="preserve">drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/concepts/847c2382-1f70-4741-b383-ea0320510e97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/5e7da5db-43e5-4201-af3c-d76c24e66ed2</t>
+    <t xml:space="preserve">http://trials.drugis.org/instances/baseline</t>
   </si>
   <si>
     <t xml:space="preserve">Baseline char</t>
   </si>
   <si>
-    <t xml:space="preserve">http://trials.drugis.org/concepts/518cab3d-0d48-4b01-9c92-60aebba50080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/6b440046-45f8-480b-88a3-e79830fa8329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/dc438d81-712f-4b56-aed3-da03073edd74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/instances/f1910de6-72a4-465f-901f-eb20dc8b1ecc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milligram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trials.drugis.org/concepts/b84e32d5-a3a5-4733-a978-4a23b223ef20</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADDIS url</t>
   </si>
   <si>
@@ -338,12 +404,18 @@
     <t xml:space="preserve">testset description</t>
   </si>
   <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/variableConcept1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Var 1</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/drugConcept1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drug 1</t>
   </si>
   <si>
@@ -354,6 +426,18 @@
   </si>
   <si>
     <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/variableConcept2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Var 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trials.drugis.org/concepts/variableConcept3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Var 3</t>
   </si>
 </sst>
 </file>
@@ -429,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,6 +523,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,18 +547,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,43 +587,21 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M2" s="2" t="str">
-        <f aca="false">Concepts!B4</f>
-        <v>Baseline char</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="str">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="1" t="str">
         <f aca="false">Concepts!B5</f>
-        <v>outcome</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="str">
-        <f aca="false">Concepts!B6</f>
-        <v>AE</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Bursitis</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
@@ -588,129 +654,77 @@
         <v>19</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA3" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="O4" s="1" t="str">
-        <f aca="false">'Measurement moments'!B3</f>
-        <v>At end of epoch 1</v>
+        <f aca="false">'Measurement moments'!B5</f>
+        <v>Week 12</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="1" t="str">
+        <v>51</v>
+      </c>
+      <c r="R4" s="1" t="str">
         <f aca="false">'Measurement moments'!B4</f>
-        <v>7 day(s) from start of epoch 2</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="0" t="str">
-        <f aca="false">'Measurement moments'!B3</f>
-        <v>At end of epoch 1</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>5665</v>
-      </c>
-      <c r="AB4" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Week 52</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -722,40 +736,26 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="0" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="AA5" s="0" t="n">
-        <v>657</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T5" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -767,45 +767,188 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="0" t="n">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="2" t="str">
+        <f aca="false">Concepts!B10</f>
+        <v>Baseline char</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f aca="false">'Measurement moments'!B8</f>
+        <v>At end of epoch 1</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="AA6" s="0" t="n">
-        <v>65655</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="33">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:AB1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:T2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -820,14 +963,24 @@
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="O10:O12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="/users/1/datasets/764fbccd-4e8b-493f-9323-1901e551b356/versions/b1436e76-53ad-4ac0-b7d2-9276b40ded70/studies/70424f5a-1038-45d7-a076-570a7a519b0f" display="http://localhost:8090/#/users/1/datasets/764fbccd-4e8b-493f-9323-1901e551b356/versions/b1436e76-53ad-4ac0-b7d2-9276b40ded70/studies/70424f5a-1038-45d7-a076-570a7a519b0f"/>
+    <hyperlink ref="B4" r:id="rId1" location="/users/1/datasets/926cac9e-6871-4500-831c-87c218378942/versions/537c5bab-49e3-403b-97b9-f752c05f96b7/studies/1c9d7949-2d1a-47ec-8fa7-76acaae9f437" display="http://localhost:8090/#/users/1/datasets/926cac9e-6871-4500-831c-87c218378942/versions/537c5bab-49e3-403b-97b9-f752c05f96b7/studies/1c9d7949-2d1a-47ec-8fa7-76acaae9f437"/>
+    <hyperlink ref="B10" r:id="rId2" location="/users/1/datasets/764fbccd-4e8b-493f-9323-1901e551b356/versions/b1436e76-53ad-4ac0-b7d2-9276b40ded70/studies/70424f5a-1038-45d7-a076-570a7a519b0f" display="http://localhost:8090/#/users/1/datasets/764fbccd-4e8b-493f-9323-1901e551b356/versions/b1436e76-53ad-4ac0-b7d2-9276b40ded70/studies/70424f5a-1038-45d7-a076-570a7a519b0f"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -844,18 +997,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>4</v>
       </c>
@@ -886,14 +1039,32 @@
       <c r="J1" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">'Study data'!A4</f>
-        <v>Teststudy 1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Ahrén 2004</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>51</v>
       </c>
@@ -903,39 +1074,144 @@
       <c r="C3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="0" t="str">
+      <c r="B4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <f aca="false">Concepts!B4</f>
+        <v>Vildagliptin</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <f aca="false">Concepts!B6</f>
+        <v>milligram</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="0" t="str">
         <f aca="false">Concepts!B3</f>
+        <v>Placebo</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">Concepts!B6</f>
+        <v>milligram</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <f aca="false">Concepts!B3</f>
+        <v>Placebo</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <f aca="false">Concepts!B6</f>
+        <v>milligram</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="false">'Study data'!A10</f>
+        <v>Teststudy 2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <f aca="false">Concepts!B9</f>
         <v>drug 1</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="str">
-        <f aca="false">Concepts!B7</f>
+      <c r="I10" s="0" t="str">
+        <f aca="false">Concepts!B11</f>
         <v>milligram</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -954,15 +1230,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,56 +1246,104 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">'Study data'!A4</f>
-        <v>Teststudy 1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Ahrén 2004</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="false">'Study data'!A10</f>
+        <v>Teststudy 2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>72</v>
+      <c r="C8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1038,62 +1362,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="str">
         <f aca="false">'Study data'!A4</f>
-        <v>Teststudy 1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Ahrén 2004</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Epochs!B3</f>
-        <v>epoch 1</v>
+        <v>Randomisation</v>
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">Epochs!B4</f>
-        <v>epoch 2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>treatment phase</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <f aca="false">Epochs!B5</f>
+        <v>washout</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="str">
         <f aca="false">'Study data'!K4</f>
-        <v>arm 1</v>
+        <v>Placebo</v>
       </c>
       <c r="B3" s="0" t="str">
+        <f aca="false">Activities!B6</f>
+        <v>Randomisation</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">Activities!B5</f>
+        <v>placebo</v>
+      </c>
+      <c r="D3" s="0" t="str">
         <f aca="false">Activities!B3</f>
-        <v>act 1</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <f aca="false">Activities!B4</f>
-        <v>act 2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>washout</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
         <f aca="false">'Study data'!K5</f>
-        <v>arm 2</v>
+        <v>Vildagliptin</v>
       </c>
       <c r="B4" s="0" t="str">
-        <f aca="false">Activities!B3</f>
-        <v>act 1</v>
+        <f aca="false">Activities!B6</f>
+        <v>Randomisation</v>
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">Activities!B4</f>
-        <v>act 2</v>
+        <v>Vildagliptin + placebo</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <f aca="false">Activities!B3</f>
+        <v>washout</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="false">'Study data'!A10</f>
+        <v>Teststudy 2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">Epochs!B8</f>
+        <v>randomisation</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">Epochs!B9</f>
+        <v>treatment phase</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="false">'Study data'!K10</f>
+        <v>arm 1</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <f aca="false">Activities!B9</f>
+        <v>randomisation</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">Activities!B10</f>
+        <v>treatment</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="str">
+        <f aca="false">'Study data'!K11</f>
+        <v>arm 2</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <f aca="false">Activities!B9</f>
+        <v>randomisation</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">Activities!B10</f>
+        <v>treatment</v>
       </c>
     </row>
   </sheetData>
@@ -1112,15 +1495,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,58 +1511,119 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">'Study data'!A4</f>
-        <v>Teststudy 1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Ahrén 2004</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="str">
-        <f aca="false">Epochs!A3</f>
-        <v>http://trials.drugis.org/instances/15d94d89-2caa-4ae4-b2de-82e2951bfa93</v>
+        <f aca="false">Epochs!B3</f>
+        <v>Randomisation</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <f aca="false">Epochs!B4</f>
+        <v>treatment phase</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <f aca="false">Epochs!B4</f>
+        <v>treatment phase</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="false">'Study data'!A10</f>
+        <v>Teststudy 2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">Epochs!B8</f>
+        <v>randomisation</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">Epochs!B9</f>
+        <v>treatment phase</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="0" t="str">
-        <f aca="false">Epochs!A4</f>
-        <v>http://trials.drugis.org/instances/30dbf1ab-d458-4398-8795-75c51fecebd4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1198,15 +1642,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,94 +1658,132 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="str">
         <f aca="false">'Study data'!A4</f>
-        <v>Teststudy 1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Ahrén 2004</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="false">'Study data'!A10</f>
+        <v>Teststudy 2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="D11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -1329,7 +1811,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>14</v>
@@ -1345,13 +1827,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1373,15 +1855,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.01481481481481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,43 +1871,65 @@
         <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
